--- a/flights-data/lax_out.xlsx
+++ b/flights-data/lax_out.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1344,6 +1344,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/flights-data/lax_out.xlsx
+++ b/flights-data/lax_out.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1343,6 +1343,60 @@
         <v>-40.81</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3/23/20</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>919</v>
+      </c>
+      <c r="E37" t="n">
+        <v>589</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-330</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-56.03</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3/24/20</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>923</v>
+      </c>
+      <c r="E38" t="n">
+        <v>565</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-358</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-63.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/flights-data/lax_out.xlsx
+++ b/flights-data/lax_out.xlsx
@@ -1,37 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t>scheduled</t>
+  </si>
+  <si>
+    <t>departed</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>pct_diff</t>
+  </si>
+  <si>
+    <t>2/17/20</t>
+  </si>
+  <si>
+    <t>2/18/20</t>
+  </si>
+  <si>
+    <t>2/19/20</t>
+  </si>
+  <si>
+    <t>2/20/20</t>
+  </si>
+  <si>
+    <t>2/21/20</t>
+  </si>
+  <si>
+    <t>2/22/20</t>
+  </si>
+  <si>
+    <t>2/23/20</t>
+  </si>
+  <si>
+    <t>2/24/20</t>
+  </si>
+  <si>
+    <t>2/25/20</t>
+  </si>
+  <si>
+    <t>2/26/20</t>
+  </si>
+  <si>
+    <t>2/27/20</t>
+  </si>
+  <si>
+    <t>2/28/20</t>
+  </si>
+  <si>
+    <t>2/29/20</t>
+  </si>
+  <si>
+    <t>3/1/20</t>
+  </si>
+  <si>
+    <t>3/2/20</t>
+  </si>
+  <si>
+    <t>3/3/20</t>
+  </si>
+  <si>
+    <t>3/4/20</t>
+  </si>
+  <si>
+    <t>3/5/20</t>
+  </si>
+  <si>
+    <t>3/6/20</t>
+  </si>
+  <si>
+    <t>3/7/20</t>
+  </si>
+  <si>
+    <t>3/8/20</t>
+  </si>
+  <si>
+    <t>3/9/20</t>
+  </si>
+  <si>
+    <t>3/10/20</t>
+  </si>
+  <si>
+    <t>3/11/20</t>
+  </si>
+  <si>
+    <t>3/12/20</t>
+  </si>
+  <si>
+    <t>3/13/20</t>
+  </si>
+  <si>
+    <t>3/14/20</t>
+  </si>
+  <si>
+    <t>3/15/20</t>
+  </si>
+  <si>
+    <t>3/16/20</t>
+  </si>
+  <si>
+    <t>3/17/20</t>
+  </si>
+  <si>
+    <t>3/18/20</t>
+  </si>
+  <si>
+    <t>3/19/20</t>
+  </si>
+  <si>
+    <t>3/20/20</t>
+  </si>
+  <si>
+    <t>3/21/20</t>
+  </si>
+  <si>
+    <t>3/22/20</t>
+  </si>
+  <si>
+    <t>3/23/20</t>
+  </si>
+  <si>
+    <t>3/24/20</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +186,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +205,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,1051 +502,885 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>airport</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>scheduled</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>departed</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>diff</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>pct_diff</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>13</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2/17/20</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2">
         <v>894</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>872</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-22</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-2.52</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>41</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2/18/20</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
         <v>947</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>915</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-32</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-3.5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>69</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2/19/20</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
         <v>912</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>888</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-24</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-2.7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>97</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2/20/20</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
         <v>925</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>905</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-20</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-2.21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>125</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2/21/20</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6">
         <v>936</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>911</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-25</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-2.74</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>153</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2/22/20</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
         <v>877</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>862</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-15</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-1.74</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>181</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2/23/20</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
         <v>829</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>812</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-17</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-2.09</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>209</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2/24/20</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
         <v>927</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>894</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-33</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-3.69</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>237</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2/25/20</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
         <v>929</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>903</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-26</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-2.88</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>265</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2/26/20</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
         <v>930</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>898</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-32</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-3.56</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>293</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2/27/20</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
         <v>959</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>923</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-36</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-3.9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>321</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2/28/20</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13">
         <v>960</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>922</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-38</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-4.12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>349</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2/29/20</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
         <v>904</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>870</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-34</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-3.91</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>377</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3/1/20</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
         <v>860</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>828</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-32</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-3.86</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>405</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3/2/20</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16">
         <v>924</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>892</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-32</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-3.59</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>433</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3/3/20</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
         <v>916</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>891</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-25</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-2.81</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>461</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3/4/20</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
         <v>932</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>901</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-31</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-3.44</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>489</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3/5/20</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
         <v>974</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>925</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-49</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-5.3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>517</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3/6/20</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
         <v>956</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>919</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-37</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-4.03</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>545</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3/7/20</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
         <v>895</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>868</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-27</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-3.11</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>573</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3/8/20</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
         <v>913</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>882</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-31</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-3.51</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>601</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3/9/20</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23">
         <v>925</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>885</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-40</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-4.52</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>629</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3/10/20</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24">
         <v>926</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>894</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-32</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-3.58</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>657</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3/11/20</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25">
         <v>941</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>895</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-46</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-5.14</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>685</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>3/12/20</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26">
         <v>958</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>913</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-45</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-4.93</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>713</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>3/13/20</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27">
         <v>982</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>937</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-45</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-4.8</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>741</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>3/14/20</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
         <v>930</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>875</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-55</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-6.29</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>769</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>3/15/20</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
         <v>897</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>839</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-58</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-6.91</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>797</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3/16/20</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30">
         <v>959</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>886</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-73</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-8.24</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>825</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3/17/20</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31">
         <v>949</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>866</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-83</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-9.58</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>853</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3/18/20</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
         <v>924</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>811</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-113</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-13.93</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>881</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3/19/20</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33">
         <v>970</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>808</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-162</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-20.05</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>909</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3/20/20</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34">
         <v>955</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>781</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-174</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-22.28</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>937</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3/21/20</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35">
         <v>923</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>672</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-251</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-37.35</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>965</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3/22/20</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36">
         <v>873</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>620</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-253</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-40.81</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>993</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3/23/20</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37">
         <v>919</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>589</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-330</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-56.03</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>1021</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3/24/20</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38">
         <v>923</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>565</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-358</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-63.36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/flights-data/lax_out.xlsx
+++ b/flights-data/lax_out.xlsx
@@ -549,7 +549,7 @@
         <v>-22</v>
       </c>
       <c r="G2">
-        <v>-2.52</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -572,7 +572,7 @@
         <v>-32</v>
       </c>
       <c r="G3">
-        <v>-3.5</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -595,7 +595,7 @@
         <v>-24</v>
       </c>
       <c r="G4">
-        <v>-2.7</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -618,7 +618,7 @@
         <v>-20</v>
       </c>
       <c r="G5">
-        <v>-2.21</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -641,7 +641,7 @@
         <v>-25</v>
       </c>
       <c r="G6">
-        <v>-2.74</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -664,7 +664,7 @@
         <v>-15</v>
       </c>
       <c r="G7">
-        <v>-1.74</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -687,7 +687,7 @@
         <v>-17</v>
       </c>
       <c r="G8">
-        <v>-2.09</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -710,7 +710,7 @@
         <v>-33</v>
       </c>
       <c r="G9">
-        <v>-3.69</v>
+        <v>-3.56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -733,7 +733,7 @@
         <v>-26</v>
       </c>
       <c r="G10">
-        <v>-2.88</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -756,7 +756,7 @@
         <v>-32</v>
       </c>
       <c r="G11">
-        <v>-3.56</v>
+        <v>-3.44</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -779,7 +779,7 @@
         <v>-36</v>
       </c>
       <c r="G12">
-        <v>-3.9</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -802,7 +802,7 @@
         <v>-38</v>
       </c>
       <c r="G13">
-        <v>-4.12</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -825,7 +825,7 @@
         <v>-34</v>
       </c>
       <c r="G14">
-        <v>-3.91</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -848,7 +848,7 @@
         <v>-32</v>
       </c>
       <c r="G15">
-        <v>-3.86</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -871,7 +871,7 @@
         <v>-32</v>
       </c>
       <c r="G16">
-        <v>-3.59</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -894,7 +894,7 @@
         <v>-25</v>
       </c>
       <c r="G17">
-        <v>-2.81</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -917,7 +917,7 @@
         <v>-31</v>
       </c>
       <c r="G18">
-        <v>-3.44</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -940,7 +940,7 @@
         <v>-49</v>
       </c>
       <c r="G19">
-        <v>-5.3</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -963,7 +963,7 @@
         <v>-37</v>
       </c>
       <c r="G20">
-        <v>-4.03</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -986,7 +986,7 @@
         <v>-27</v>
       </c>
       <c r="G21">
-        <v>-3.11</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1009,7 +1009,7 @@
         <v>-31</v>
       </c>
       <c r="G22">
-        <v>-3.51</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1032,7 +1032,7 @@
         <v>-40</v>
       </c>
       <c r="G23">
-        <v>-4.52</v>
+        <v>-4.32</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1055,7 +1055,7 @@
         <v>-32</v>
       </c>
       <c r="G24">
-        <v>-3.58</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1078,7 +1078,7 @@
         <v>-46</v>
       </c>
       <c r="G25">
-        <v>-5.14</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1101,7 +1101,7 @@
         <v>-45</v>
       </c>
       <c r="G26">
-        <v>-4.93</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1124,7 +1124,7 @@
         <v>-45</v>
       </c>
       <c r="G27">
-        <v>-4.8</v>
+        <v>-4.58</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1147,7 +1147,7 @@
         <v>-55</v>
       </c>
       <c r="G28">
-        <v>-6.29</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1170,7 +1170,7 @@
         <v>-58</v>
       </c>
       <c r="G29">
-        <v>-6.91</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1193,7 +1193,7 @@
         <v>-73</v>
       </c>
       <c r="G30">
-        <v>-8.24</v>
+        <v>-7.61</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1216,7 +1216,7 @@
         <v>-83</v>
       </c>
       <c r="G31">
-        <v>-9.58</v>
+        <v>-8.75</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1239,7 +1239,7 @@
         <v>-113</v>
       </c>
       <c r="G32">
-        <v>-13.93</v>
+        <v>-12.23</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1262,7 +1262,7 @@
         <v>-162</v>
       </c>
       <c r="G33">
-        <v>-20.05</v>
+        <v>-16.7</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1285,7 +1285,7 @@
         <v>-174</v>
       </c>
       <c r="G34">
-        <v>-22.28</v>
+        <v>-18.22</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1308,7 +1308,7 @@
         <v>-251</v>
       </c>
       <c r="G35">
-        <v>-37.35</v>
+        <v>-27.19</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1331,7 +1331,7 @@
         <v>-253</v>
       </c>
       <c r="G36">
-        <v>-40.81</v>
+        <v>-28.98</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1354,7 +1354,7 @@
         <v>-330</v>
       </c>
       <c r="G37">
-        <v>-56.03</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1377,7 +1377,7 @@
         <v>-358</v>
       </c>
       <c r="G38">
-        <v>-63.36</v>
+        <v>-38.79</v>
       </c>
     </row>
   </sheetData>
